--- a/medicine/Enfance/Bibliothèque_du_Chat_perché/Bibliothèque_du_Chat_perché.xlsx
+++ b/medicine/Enfance/Bibliothèque_du_Chat_perché/Bibliothèque_du_Chat_perché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_du_Chat_perch%C3%A9</t>
+          <t>Bibliothèque_du_Chat_perché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bibliothèque du Chat perché est une collection française de romans pour la jeunesse créée en 1978 par les éditions Flammarion. Elle a été arrêtée en 1994.
 La collection a réédité sous format relié de poche, plusieurs romans classiques pour la jeunesse, souvent traduits de l'anglais.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_du_Chat_perch%C3%A9</t>
+          <t>Bibliothèque_du_Chat_perché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aspect des livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les livres étaient de solides et épais volumes reliés de luxe. Au bas du dos figurait la silhouette d'un chat blanc.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_du_Chat_perch%C3%A9</t>
+          <t>Bibliothèque_du_Chat_perché</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste exhaustive des titres parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1978 : La Maison de l'ours Winnie, de A. A. Milne ; illustré par Ernest Shepard ; traduit par Hélène Seyrès.
 1978 : La Dernière Harde, de Maurice Genevoix ; illustré par Grégoire Zbroszczyk.
